--- a/biology/Botanique/Mikania/Mikania.xlsx
+++ b/biology/Botanique/Mikania/Mikania.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Mikania est un genre de plante à fleurs de la famille des Asteraceae. Les espèces sont de lianes grimpantes. Mikania laevigata et Mikania glomerata sont utilisées comme plantes médicinales.
 Le genre porte le nom du botaniste Joseph Gottfried Mikan.
@@ -512,7 +524,9 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Mikania amara (Vahl) Willd.
 Mikania banisteriae DC.
